--- a/homework2/하노이타워.xlsx
+++ b/homework2/하노이타워.xlsx
@@ -279,6 +279,17 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$3:$A$38</c:f>
@@ -524,11 +535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49866752"/>
-        <c:axId val="51425216"/>
+        <c:axId val="128292352"/>
+        <c:axId val="94082688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49866752"/>
+        <c:axId val="128292352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51425216"/>
+        <c:crossAx val="94082688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -545,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51425216"/>
+        <c:axId val="94082688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,16 +567,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49866752"/>
+        <c:crossAx val="128292352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -583,15 +589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -903,7 +909,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
